--- a/Busqueda.xlsx
+++ b/Busqueda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban\OneDrive - Universidad Externado de Colombia\Desktop\Mapeo soberanía alimentaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2954484B-0F3F-47FB-B324-79EC85884AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D36852-38AD-4E09-9C0E-54E1E72FF2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,552 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
   <si>
     <t>búsqueda</t>
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>BIOLOGÍA UNIVERSIDAD DE LOS LLANOS</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACION EN ACCION MOTRIZ UNIVERSIDAD DE LOS LLANOS</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN EPIDEMIOLOGÍA UNIVERSIDAD DE LOS LLANOS</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN SEGURIDAD Y SALUD EN EL TRABAJO UNIVERSIDAD DE LOS LLANOS</t>
-  </si>
-  <si>
-    <t>TECNOLOGíA EN REGENCIA DE FARMACIA UNIVERSIDAD DE LOS LLANOS</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN MICROBIOLOGÍA AGRÍCOLA E INDUSTRIAL UNIVERSIDAD POPULAR DEL CESAR</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN MICROBIOLOGÍA UNIVERSIDAD-COLEGIO MAYOR DE CUNDINAMARCA</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN CIENCIAS AMBIENTALES UNIVERSIDAD NACIONAL DE COLOMBIA</t>
-  </si>
-  <si>
-    <t>ADMINISTRACIÓN AMBIENTAL Y SANITARIA UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>ADMINISTRACIÓN EN SALUD UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>ADMINISTRACION EN SALUD: ENFASIS EN GESTION DE SERVICIOS DE SALUD Y  ENFASIS EN GESTION SANITARIA Y AMBIENTAL UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>ADMINISTRACIÓN EN SALUD: ÉNFASIS EN GESTIÓN DE SERVICIOS DE SALUD Y ÉNFASIS EN GESTIÓN SANITARIA Y AMBIENTAL UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>BIOLOGIA UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>BIOLOGÍA UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>CIENCIA Y TECNOLOGIA DE ALIMENTOS UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>DOCTORADO EN BIOLOGIA UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>DOCTORADO EN BIOTECNOLOGÍA UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>DOCTORADO EN CIENCIAS FARMACÉUTICAS Y ALIMENTARIAS UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>Doctorado en Educación y Salud UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>DOCTORADO EN EPIDEMIOLOGIA UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>DOCTORADO EN MICROBIOLOGÍA UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>DOCTORADO EN NUTRICIÓN HUMANA Y ALIMENTOS UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>DOCTORADO EN SALUD PÚBLICA UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>Doctorado en Sostenibilidad UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACION EN ADMINISTRACION DE SERVICIOS DE SALUD UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACIÓN EN ADMINISTRACIÓN DE SERVICIOS DE SALUD UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACION EN AUDITORIA EN SALUD UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACIÓN EN AUDITORIA EN SALUD UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACION EN CIENCIAS FORENSES UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACION EN ERGONOMIA UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACION EN GERENCIA SANITARIA DE EMERGENCIAS Y DESASTRES UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACIÓN EN GERENCIA SANITARIA DE EMERGENCIAS Y DESASTRES UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACIÓN EN GESTIÓN Y ASEGURAMIENTO DE LA CALIDAD EN LABORATORIOS CLÍNICO Y DE ENSAYO UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACION EN MANEJO Y GESTION DEL AGUA UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACION EN MEDIO AMBIENTE Y GEOINFORMATICA UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACIÓN EN SALUD AMBIENTAL UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACIÓN EN SALUD INTERNACIONAL UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACION EN SALUD OCUPACIONAL UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACIÓN EN SALUD OCUPACIONAL UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACION EN SEGURIDAD Y SALUD EN EL TRABAJO UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>GERENCIA EN SISTEMAS DE INFORMACION EN SALUD UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>GESTIÓN EN ECOLOGÍA Y TURISMO UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>MAESTRIA BIOTECNOLOGIA Y MEDIO AMBIENTE UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN ADMINISTRACIÓN HOSPITALARIA UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN BIOLOGIA UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN BIOTECNOLOGIA UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN BIOTECNOLOGIA UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN CIENCIAS AMBIENTALES UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN CIENCIAS AMBIENTALES UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN EPIDEMIOLOGIA UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN MÉTODOS CUANTITATIVOS PARA ECONOMÍA Y FINANZAS UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN MICROBIOLOGIA UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN MOTRICIDAD - DESARROLLO HUMANO UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN MOTRICIDAD - DESARROLLO HUMANO UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN SALUD AMBIENTAL UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN SALUD COLECTIVA UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN SALUD MENTAL UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN SALUD OCUPACIONAL UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN SALUD PUBLICA UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN SALUD PÚBLICA UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN SEGURIDAD Y SALUD EN EL TRABAJO UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN TELESALUD UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>MAESTRÍAS EN CIENCIAS FARMACÉUTICAS Y ALIMENTARIAS UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>MICROBIOLOGIA INDUSTRIAL Y AMBIENTAL UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>MICROBIOLOGÍA INDUSTRIAL Y AMBIENTAL UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>TÉCNICA PROFESIONAL EN SANEAMIENTO BÁSICO UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA DE ALIMENTOS UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>TECNOLOGÍA DE ALIMENTOS UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA EN ADMINISTRACION DE SERVICIOS DE SALUD UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>TECNOLOGÍA EN ADMINISTRACIÓN DE SERVICIOS DE SALUD UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>TECNOLOGÍA EN GESTIÓN DE SERVICIOS DE SALUD UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>TECNOLOGÍA EN MICROBIOLOGÍA VETERINARIA UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA EN REGENCIA DE FARMACIA UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA EN SANEAMIENTO AMBIENTAL UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>TECNOLOGÍA EN SANEAMIENTO AMBIENTAL UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>TECNOLOGÍA EN SANEAMIETO AMBIENTAL UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA EN SISTEMAS DE INFORMACION EN SALUD UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>TECNOLOGÍA EN SISTEMAS DE INFORMACIÓN EN SALUD UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>BIOLOGIA UNIVERSIDAD DEL ATLANTICO</t>
-  </si>
-  <si>
-    <t>DOCTORADO EN CIENCIAS QUIMICAS UNIVERSIDAD DEL ATLANTICO</t>
-  </si>
-  <si>
-    <t>Maestría en Biología UNIVERSIDAD DEL ATLANTICO</t>
-  </si>
-  <si>
-    <t>TÉCNICA PROFESIONAL EN PISCICULTURA CONTINENTAL UNIVERSIDAD DEL ATLANTICO</t>
-  </si>
-  <si>
-    <t>BIOLOGIA UNIVERSIDAD DEL VALLE</t>
-  </si>
-  <si>
-    <t>DOCTORADO EN CIENCIAS AMBIENTALES UNIVERSIDAD DEL VALLE</t>
-  </si>
-  <si>
-    <t>DOCTORADO EN CIENCIAS- BIOLOGIA UNIVERSIDAD DEL VALLE</t>
-  </si>
-  <si>
-    <t>DOCTORADO EN CIENCIAS DEL MAR UNIVERSIDAD DEL VALLE</t>
-  </si>
-  <si>
-    <t>DOCTORADO EN ERGONOMIA UNIVERSIDAD DEL VALLE</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACION EN CONSERVACION DE LA BIODIVERSIDAD UNIVERSIDAD DEL VALLE</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN BIOQUIMICA UNIVERSIDAD DEL VALLE</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN BIOTECNOLOGÍA UNIVERSIDAD DEL VALLE</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN CIENCIAS- BIOLOGIA UNIVERSIDAD DEL VALLE</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN ECONOMÍA DE LA SALUD UNIVERSIDAD DEL VALLE</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN EPIDEMIOLOGIA UNIVERSIDAD DEL VALLE</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN FARMACOLOGIA UNIVERSIDAD DEL VALLE</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN FISIOLOGIA UNIVERSIDAD DEL VALLE</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN GESTION DE LA CALIDAD PARA LABORATORIOS UNIVERSIDAD DEL VALLE</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN SALUD OCUPACIONAL UNIVERSIDAD DEL VALLE</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA EN AGROFORESTERIA UNIVERSIDAD DEL VALLE</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA EN ALIMENTOS UNIVERSIDAD DEL VALLE</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA EN MANEJO DE LA PRODUCCIÓN AGROFORESTAL UNIVERSIDAD DEL VALLE</t>
-  </si>
-  <si>
-    <t>BIOLOGIA UNIVERSIDAD INDUSTRIAL DE SANTANDER</t>
-  </si>
-  <si>
-    <t>DOCTORADO EN CIENCIAS BIOLÓGICAS UNIVERSIDAD INDUSTRIAL DE SANTANDER</t>
-  </si>
-  <si>
-    <t>DOCTORADO EN CIENCIAS BIOMÉDICAS UNIVERSIDAD INDUSTRIAL DE SANTANDER</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACION EN ADMINISTRACION DE SERVICIOS DE SALUD UNIVERSIDAD INDUSTRIAL DE SANTANDER</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACIÓN EN ADMINISTRACIÓN DE SERVICIOS DE SALUD UNIVERSIDAD INDUSTRIAL DE SANTANDER</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACIÓN EN GERENCIA DE PROYECTOS EN ALIMENTACIÓN Y NUTRICIÓN UNIVERSIDAD INDUSTRIAL DE SANTANDER</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN BIOLOGÍA UNIVERSIDAD INDUSTRIAL DE SANTANDER</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN CIENCIAS BASICAS BIOMEDICAS UNIVERSIDAD INDUSTRIAL DE SANTANDER</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN EPIDEMIOLOGIA UNIVERSIDAD INDUSTRIAL DE SANTANDER</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN MICROBIOLOGÍA UNIVERSIDAD INDUSTRIAL DE SANTANDER</t>
-  </si>
-  <si>
-    <t>MICROBIOLOGIA Y BIOANALISIS UNIVERSIDAD INDUSTRIAL DE SANTANDER</t>
-  </si>
-  <si>
-    <t>BIOLOGÍA UNIVERSIDAD DE CARTAGENA</t>
-  </si>
-  <si>
-    <t>DOCTORADO EN AMBIENTE Y DESARROLLO SOSTENIBLE UNIVERSIDAD DE CARTAGENA</t>
-  </si>
-  <si>
-    <t>DOCTORADO EN CIENCIAS UNIVERSIDAD DE CARTAGENA</t>
-  </si>
-  <si>
-    <t>DOCTORADO EN CIENCIAS BIOMEDICAS UNIVERSIDAD DE CARTAGENA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACION EN GERENCIA DE LA SEGURIDAD Y SALUD EN EL TRABAJO UNIVERSIDAD DE CARTAGENA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACION EN GESTIÓN DEL RIESGO LABORAL UNIVERSIDAD DE CARTAGENA</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN BIOQUÍMICA UNIVERSIDAD DE CARTAGENA</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN GESTIÓN INTEGRAL DE LA SEGURIDAD Y SALUD EN EL TRABAJO UNIVERSIDAD DE CARTAGENA</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN INMUNOLOGIA UNIVERSIDAD DE CARTAGENA</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN MICROBIOLOGIA UNIVERSIDAD DE CARTAGENA</t>
-  </si>
-  <si>
-    <t>SEGURIDAD Y SALUD EN EL TRABAJO UNIVERSIDAD DE CARTAGENA</t>
-  </si>
-  <si>
-    <t>BIOLOGIA UNIVERSIDAD DE NARIÑO</t>
-  </si>
-  <si>
-    <t>Doctorado en Ciencias Naturales y Matemáticas UNIVERSIDAD DE NARIÑO</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACION EN SEGURIDAD Y SALUD EN EL TRABAJO UNIVERSIDAD DE NARIÑO</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN CIENCIAS BIOLÓGIAS UNIVERSIDAD DE NARIÑO</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN SALUD PÚBLICA UNIVERSIDAD DE NARIÑO</t>
-  </si>
-  <si>
-    <t>BIOLOGIA UNIVERSIDAD DEL TOLIMA</t>
-  </si>
-  <si>
-    <t>DOCTORADO EN CIENCIAS BIOLÓGICAS UNIVERSIDAD DEL TOLIMA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACIÓN EN RESTAURACIÓN ECOLÓGICA UNIVERSIDAD DEL TOLIMA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACIÓN EN SEGURIDAD E HIGIENE EN EL AMBITO LABORAL UNIVERSIDAD DEL TOLIMA</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN CIENCIAS BIOLOGICAS UNIVERSIDAD DEL TOLIMA</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN CIENCIAS DE LA CULTURA FÍSICA Y DEL DEPORTE UNIVERSIDAD DEL TOLIMA</t>
-  </si>
-  <si>
-    <t>SEGURIDAD Y SALUD EN EL TRABAJO UNIVERSIDAD DEL TOLIMA</t>
-  </si>
-  <si>
-    <t>TECNOLOGÍA EN REGENCIA DE FARMACIA UNIVERSIDAD DEL TOLIMA</t>
-  </si>
-  <si>
-    <t>BIOLOGIA UNIVERSIDAD DEL QUINDIO</t>
-  </si>
-  <si>
-    <t>MAESTRIA BIOLOGIA VEGETAL UNIVERSIDAD DEL QUINDIO</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN CIENCIAS-BIOLOGÍA VEGETAL UNIVERSIDAD DEL QUINDIO</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN MEDIO AMBIENTE UNIVERSIDAD DEL QUINDIO</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN SEGURIDAD Y SALUD EN EL TRABAJO UNIVERSIDAD DEL QUINDIO</t>
-  </si>
-  <si>
-    <t>SEGURIDAD Y SALUD EN EL TRABAJO UNIVERSIDAD DEL QUINDIO</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN CIENCIAS BIOLÓGICAS UNIVERSIDAD FRANCISCO DE PAULA SANTANDER</t>
-  </si>
-  <si>
-    <t>TECNICO PROFESIONAL EN PROCESAMIENTO DE ALIMENTOS UNIVERSIDAD FRANCISCO DE PAULA SANTANDER</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA EN REGENCIA DE FARMACIA UNIVERSIDAD FRANCISCO DE PAULA SANTANDER</t>
-  </si>
-  <si>
-    <t>TECNOLOGíA EN REGENCIA DE FARMACIA UNIVERSIDAD FRANCISCO DE PAULA SANTANDER</t>
-  </si>
-  <si>
-    <t>BIOLOGIA UNIVERSIDAD DE PAMPLONA</t>
-  </si>
-  <si>
-    <t>Doctorado en Actividad Física y Deporte UNIVERSIDAD DE PAMPLONA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACION EN MANEJO Y CONSERVACION DE LOS RECURSOS NATURALES UNIVERSIDAD DE PAMPLONA</t>
-  </si>
-  <si>
-    <t>GEOLOGIA UNIVERSIDAD DE PAMPLONA</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN BIOLOGIA MOLECULAR Y BIOTECNOLOGIA UNIVERSIDAD DE PAMPLONA</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN BIOQUIMICA UNIVERSIDAD DE PAMPLONA</t>
-  </si>
-  <si>
-    <t>MICROBIOLOGIA UNIVERSIDAD DE PAMPLONA</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA DE ALIMENTOS UNIVERSIDAD DE PAMPLONA</t>
-  </si>
-  <si>
-    <t>BIOLOGIA UNIVERSIDAD DEL MAGDALENA - UNIMAGDALENA</t>
-  </si>
-  <si>
-    <t>DOCTORADO EN CIENCIAS DEL MAR UNIVERSIDAD DEL MAGDALENA - UNIMAGDALENA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACION EN BIOLOGIA UNIVERSIDAD DEL MAGDALENA - UNIMAGDALENA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACION EN BIOLOGIA DE ESTUARIOS UNIVERSIDAD DEL MAGDALENA - UNIMAGDALENA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACION EN CIENCIAS Y TECNOLOGIA DE ALIMENTOS UNIVERSIDAD DEL MAGDALENA - UNIMAGDALENA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACION EN MODELADO Y SIMULACIÓN UNIVERSIDAD DEL MAGDALENA - UNIMAGDALENA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACIÓN EN SEGURIDAD Y SALUD EN EL TRABAJO UNIVERSIDAD DEL MAGDALENA - UNIMAGDALENA</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN CIENCIAS AMBIENTALES UNIVERSIDAD DEL MAGDALENA - UNIMAGDALENA</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN ECOLOGÍA Y BIODIVERSIDAD UNIVERSIDAD DEL MAGDALENA - UNIMAGDALENA</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN EPIDEMIOLOGIA UNIVERSIDAD DEL MAGDALENA - UNIMAGDALENA</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN GESTIÓN DEL TERRITORIO MARINO COSTERO UNIVERSIDAD DEL MAGDALENA - UNIMAGDALENA</t>
-  </si>
-  <si>
-    <t>TÉCNICO PROFESIONAL EN PREVENCIÓN DE RIESGOS LABORALES UNIVERSIDAD DEL MAGDALENA - UNIMAGDALENA</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA EN REGENCIA DE FARMACIA UNIVERSIDAD DEL MAGDALENA - UNIMAGDALENA</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA EN SALUD OCUPACIONAL UNIVERSIDAD DEL MAGDALENA - UNIMAGDALENA</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN CIENCIAS AMBIENTALES UNIVERSIDAD DE CUNDINAMARCA-UDEC</t>
-  </si>
-  <si>
-    <t>Maestría en Gestión Ambiental para el Desarrollo  Sostenible UNIVERSIDAD DE CUNDINAMARCA-UDEC</t>
-  </si>
-  <si>
-    <t>PROFESIONAL EN CIENCIAS DEL DEPORTE UNIVERSIDAD DE CUNDINAMARCA-UDEC</t>
-  </si>
-  <si>
-    <t>BIOLOGIA UNIVERSIDAD DE SUCRE</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN BIOLOGIA UNIVERSIDAD DE SUCRE</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA EN REGENCIA DE FARMACIA UNIVERSIDAD DE SUCRE</t>
-  </si>
-  <si>
-    <t>BIOLOGIA UNIVERSIDAD DE LA GUAJIRA</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN GESTION INTEGRAL FRENTE AL CAMBIO CLIMÁTICO UNIVERSIDAD DE LA GUAJIRA</t>
-  </si>
-  <si>
-    <t>Seguridad y salud en el trabajo UNIVERSIDAD DE LA GUAJIRA</t>
-  </si>
-  <si>
-    <t>ECOLOGIA DE ZONAS COSTERAS UNIVERSIDAD DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>BIOLOGÍA UNIVERSIDAD DISTRITAL-FRANCISCO JOSE DE CALDAS</t>
-  </si>
-  <si>
-    <t>Doctorado en Ambiente e Ingeniería Sustentable UNIVERSIDAD DISTRITAL-FRANCISCO JOSE DE CALDAS</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN DESARROLLO SUSTENTABLE Y GESTIÓN AMBIENTAL UNIVERSIDAD DISTRITAL-FRANCISCO JOSE DE CALDAS</t>
   </si>
   <si>
     <t>MAESTRIA EN MANEJO, USO Y CONSERVACION DEL BOSQUE UNIVERSIDAD DISTRITAL-FRANCISCO JOSE DE CALDAS</t>
@@ -1585,7 +1045,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1916,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B494"/>
+  <dimension ref="A1:B314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="A314" sqref="A314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,822 +1477,822 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
@@ -3500,912 +2980,15 @@
         <v>314</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
-        <v>494</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B11:B1048576 A1:B1 A495:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <conditionalFormatting sqref="A315:A1048576 B2:B1048576 A1:B1">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Busqueda.xlsx
+++ b/Busqueda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban\OneDrive - Universidad Externado de Colombia\Desktop\Mapeo soberanía alimentaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F97E15-F360-4B52-8A60-366B46821B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD34136-DF5F-4C1E-9A29-DBBD349C19CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,135 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>búsqueda</t>
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>MAESTRIA EN MANEJO, USO Y CONSERVACION DEL BOSQUE UNIVERSIDAD DISTRITAL-FRANCISCO JOSE DE CALDAS</t>
-  </si>
-  <si>
-    <t>BIOLOGIA PONTIFICIA UNIVERSIDAD JAVERIANA</t>
-  </si>
-  <si>
-    <t>TECNOLOGÍA EN GESTIÓN SOSTENIBLE DEL CAFÉ CORPORACION UNIVERSITARIA MINUTO DE DIOS -UNIMINUTO-</t>
-  </si>
-  <si>
-    <t>SEGURIDAD Y SALUD EN EL TRABAJO CORPORACION UNIVERSITARIA IBEROAMERICANA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACIÓN EN BIOTECNOLOGÍA Y SEGURIDAD ALIMENTARIA UNIVERSIDAD DE SANTANDER - UDES</t>
-  </si>
-  <si>
-    <t>Especialización en Sistemas de Garantía de Calidad y Auditoría de Servicios de Salud UNIVERSIDAD DE SANTANDER - UDES</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN BIOTECNOLOGÍA UNIVERSIDAD DE SANTANDER - UDES</t>
-  </si>
-  <si>
-    <t>MICROBIOLOGIA INDUSTRIAL UNIVERSIDAD DE SANTANDER - UDES</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA EN  ALIMENTOS UNIVERSIDAD DE SANTANDER - UDES</t>
-  </si>
-  <si>
-    <t>INGENIERÍA EN SEGURIDAD Y SALUD EN EL TRABAJO CORPORACION UNIVERSITARIA REMINGTON</t>
-  </si>
-  <si>
-    <t>TECNOLOGÍA EN REGENCIA DE FARMACIA CORPORACION UNIVERSITARIA REMINGTON</t>
-  </si>
-  <si>
-    <t>Especialización en seguridad y salud en el trabajo CORPORACION UNIVERSITARIA AUTONOMA DEL CAUCA</t>
-  </si>
-  <si>
-    <t>Especialización En Ergonomía CORPORACION UNIVERSITARIA ANTONIO JOSE DE SUCRE - CORPOSUCRE</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACIÓN EN SEGURIDAD Y SALUD EN EL TRABAJO CORPORACION UNIVERSITARIA ANTONIO JOSE DE SUCRE - CORPOSUCRE</t>
-  </si>
-  <si>
-    <t>Técnica Profesional en Procesos de Seguridad y Salud en el Trabajo INSTITUTO SUPERIOR DE EDUCACION RURAL-ISER-</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACIÓN TECNOLÓGICA EN EL MANEJO INTEGRADO DE LAS ZONAS COSTERAS. ESCUELA NAVAL DE SUBOFICIALES ARC BARRANQUILLA</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA EN GESTION SOSTENIBLE DE LA BIODIVERSIDAD Y EL BIOCOMERCIO INSTITUTO TECNOLOGICO DEL PUTUMAYO</t>
-  </si>
-  <si>
-    <t>TECNICO PROFESIONAL EN GESTION Y AUDITORIA AMBIENTAL INSTITUCIÓN UNIVERSITARIA DE BARRANQUILLA - IUB</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA EN GESTION Y AUDITORIA AMBIENTAL INSTITUCIÓN UNIVERSITARIA DE BARRANQUILLA - IUB</t>
-  </si>
-  <si>
-    <t>PROFESIONAL EN ACTIVIDAD FÍSICA Y DEPORTE UNIDADES TECNOLOGICAS DE SANTANDER</t>
-  </si>
-  <si>
-    <t>PROFESIONAL EN CULTURA FÍSICA Y DEPORTE UNIDADES TECNOLOGICAS DE SANTANDER</t>
-  </si>
-  <si>
-    <t>PROFESIONAL EN GESTIÓN DE LA SEGURIDAD Y SALUD EN EL TRABAJO TECNOLOGICO DE ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>ESPECIALIZACIÓN EN GESTIÓN AMBIENTAL SOSTENIBLE INSTITUCION UNIVERSITARIA ANTONIO JOSE CAMACHO</t>
-  </si>
-  <si>
-    <t>SALUD OCUPACIONAL INSTITUCION UNIVERSITARIA ANTONIO JOSE CAMACHO</t>
-  </si>
-  <si>
-    <t>CIENCIAS AMBIENTALES INSTITUTO TECNOLOGICO METROPOLITANO</t>
-  </si>
-  <si>
-    <t>MAESTRÍA EN DESARROLLO SOSTENIBLE INSTITUTO TECNOLOGICO METROPOLITANO</t>
-  </si>
-  <si>
-    <t>TECNOLOGÍA EN SEGURIDAD Y SALUD EN EL TRABAJO FUNDACION TECNOLOGICA AUTONOMA DE BOGOTA-FABA-</t>
-  </si>
-  <si>
-    <t>TÉCNICA PROFESIONAL EN SEGURIDAD INDUSTRIAL FUNDACION UNIVERSITARIA ANTONIO DE AREVALO - UNITECNAR</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA EN SALUD OCUPACIONAL FUNDACION UNIVERSITARIA ANTONIO DE AREVALO - UNITECNAR</t>
-  </si>
-  <si>
-    <t>TECNOLOGÍA EN SALUD OCUPACIONAL FUNDACION UNIVERSITARIA ANTONIO DE AREVALO - UNITECNAR</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA EN SEGURIDAD Y SALUD EN EL TRABAJO FUNDACION UNIVERSITARIA ANTONIO DE AREVALO - UNITECNAR</t>
-  </si>
-  <si>
-    <t>TECNICA PROFESIONAL EN MONITOREO AMBIENTAL FUNDACION CENTRO DE INVESTIGACION DOCENCIA Y CONSULTORIA ADMINISTRATIVA-F-CIDCA-</t>
-  </si>
-  <si>
-    <t>SEGURIDAD Y SALUD EN EL TRABAJO FUNDACION UNIVERSITARIA PARA EL DESARROLLO HUMANO - UNINPAHU</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA EN SALUD OCUPACIONAL FUNDACION UNIVERSITARIA PARA EL DESARROLLO HUMANO - UNINPAHU</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA EN SEGURIDAD Y SALUD EN EL TRABAJO FUNDACION UNIVERSITARIA PARA EL DESARROLLO HUMANO - UNINPAHU</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA EN GESTION AMBIENTAL FUNDACION TECNOLOGICA AUTONOMA DEL PACIFICO</t>
-  </si>
-  <si>
-    <t>TECNICA PROFESIONAL EN OPERACION DE SISTEMAS DE MANEJO AMBIENTAL TECNOLOGICA FITEC</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA EN ALIMENTOS TECNOLOGICA FITEC</t>
-  </si>
-  <si>
-    <t>TECNOLOGÍA EN GESTIÓN DE SEGURIDAD Y SALUD EN EL TRABAJO ESCUELA DE TECNOLOGIAS DE ANTIOQUIA -ETA-</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA EN REGENCIA DE FARMACIA CORPORACION TECNOLOGICA DE BOGOTA - CTB</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA EN ALIMENTOS CORPORACION DE EDUCACION DEL NORTE DEL TOLIMA - COREDUCACION</t>
   </si>
   <si>
     <t>TECNOLOGIA EN GESTION AMBIENTAL TERRITORIAL INSTITUCION UNIVERSITARIA MARCO FIDEL SUAREZ - IUMAFIS</t>
@@ -753,16 +630,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="87.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,526 +649,323 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576 C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A103:A1048576 B2:B1048576 A1:B1">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  <conditionalFormatting sqref="A63:A1048576 B2:B1048576 A1:B1">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576 C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
